--- a/0_Datasets/Data2023/Region/clean_data/regnprof_2023_clean.xlsx
+++ b/0_Datasets/Data2023/Region/clean_data/regnprof_2023_clean.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:PA21"/>
+  <dimension ref="A1:PC21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2519,6 +2519,16 @@
           <t>Region 2022 Graduates: Minimum HS PGM All Students % (Profile Only)</t>
         </is>
       </c>
+      <c r="PB1" s="1" t="inlineStr">
+        <is>
+          <t>REGION</t>
+        </is>
+      </c>
+      <c r="PC1" s="1" t="inlineStr">
+        <is>
+          <t>REGNNAME</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3774,6 +3784,16 @@
       <c r="PA2" t="n">
         <v>0</v>
       </c>
+      <c r="PB2" t="inlineStr">
+        <is>
+          <t>'01</t>
+        </is>
+      </c>
+      <c r="PC2" t="inlineStr">
+        <is>
+          <t>REGION 01: EDINBURG</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5029,6 +5049,16 @@
       <c r="PA3" t="n">
         <v>0.1</v>
       </c>
+      <c r="PB3" t="inlineStr">
+        <is>
+          <t>'02</t>
+        </is>
+      </c>
+      <c r="PC3" t="inlineStr">
+        <is>
+          <t>REGION 02: CORPUS CHRISTI</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6284,6 +6314,16 @@
       <c r="PA4" t="n">
         <v>0</v>
       </c>
+      <c r="PB4" t="inlineStr">
+        <is>
+          <t>'03</t>
+        </is>
+      </c>
+      <c r="PC4" t="inlineStr">
+        <is>
+          <t>REGION 03: VICTORIA</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7539,6 +7579,16 @@
       <c r="PA5" t="n">
         <v>0</v>
       </c>
+      <c r="PB5" t="inlineStr">
+        <is>
+          <t>'04</t>
+        </is>
+      </c>
+      <c r="PC5" t="inlineStr">
+        <is>
+          <t>REGION 04: HOUSTON</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -8794,6 +8844,16 @@
       <c r="PA6" t="n">
         <v>0</v>
       </c>
+      <c r="PB6" t="inlineStr">
+        <is>
+          <t>'05</t>
+        </is>
+      </c>
+      <c r="PC6" t="inlineStr">
+        <is>
+          <t>REGION 05: BEAUMONT</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -10049,6 +10109,16 @@
       <c r="PA7" t="n">
         <v>0</v>
       </c>
+      <c r="PB7" t="inlineStr">
+        <is>
+          <t>'06</t>
+        </is>
+      </c>
+      <c r="PC7" t="inlineStr">
+        <is>
+          <t>REGION 06: HUNTSVILLE</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -11304,6 +11374,16 @@
       <c r="PA8" t="n">
         <v>0.1</v>
       </c>
+      <c r="PB8" t="inlineStr">
+        <is>
+          <t>'07</t>
+        </is>
+      </c>
+      <c r="PC8" t="inlineStr">
+        <is>
+          <t>REGION 07: KILGORE</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -12559,6 +12639,16 @@
       <c r="PA9" t="n">
         <v>0</v>
       </c>
+      <c r="PB9" t="inlineStr">
+        <is>
+          <t>'08</t>
+        </is>
+      </c>
+      <c r="PC9" t="inlineStr">
+        <is>
+          <t>REGION 08: MT PLEASANT</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -13814,6 +13904,16 @@
       <c r="PA10" t="n">
         <v>0</v>
       </c>
+      <c r="PB10" t="inlineStr">
+        <is>
+          <t>'09</t>
+        </is>
+      </c>
+      <c r="PC10" t="inlineStr">
+        <is>
+          <t>REGION 09: WICHITA FALLS</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -15069,6 +15169,16 @@
       <c r="PA11" t="n">
         <v>0.1</v>
       </c>
+      <c r="PB11" t="inlineStr">
+        <is>
+          <t>'10</t>
+        </is>
+      </c>
+      <c r="PC11" t="inlineStr">
+        <is>
+          <t>REGION 10: RICHARDSON</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -16324,6 +16434,16 @@
       <c r="PA12" t="n">
         <v>0</v>
       </c>
+      <c r="PB12" t="inlineStr">
+        <is>
+          <t>'11</t>
+        </is>
+      </c>
+      <c r="PC12" t="inlineStr">
+        <is>
+          <t>REGION 11: FORT WORTH</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -17579,6 +17699,16 @@
       <c r="PA13" t="n">
         <v>0.2</v>
       </c>
+      <c r="PB13" t="inlineStr">
+        <is>
+          <t>'12</t>
+        </is>
+      </c>
+      <c r="PC13" t="inlineStr">
+        <is>
+          <t>REGION 12: WACO</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -18834,6 +18964,16 @@
       <c r="PA14" t="n">
         <v>1</v>
       </c>
+      <c r="PB14" t="inlineStr">
+        <is>
+          <t>'13</t>
+        </is>
+      </c>
+      <c r="PC14" t="inlineStr">
+        <is>
+          <t>REGION 13: AUSTIN</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -20089,6 +20229,16 @@
       <c r="PA15" t="n">
         <v>0</v>
       </c>
+      <c r="PB15" t="inlineStr">
+        <is>
+          <t>'14</t>
+        </is>
+      </c>
+      <c r="PC15" t="inlineStr">
+        <is>
+          <t>REGION 14: ABILENE</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -21344,6 +21494,16 @@
       <c r="PA16" t="n">
         <v>0</v>
       </c>
+      <c r="PB16" t="inlineStr">
+        <is>
+          <t>'15</t>
+        </is>
+      </c>
+      <c r="PC16" t="inlineStr">
+        <is>
+          <t>REGION 15: SAN ANGELO</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -22599,6 +22759,16 @@
       <c r="PA17" t="n">
         <v>0.1</v>
       </c>
+      <c r="PB17" t="inlineStr">
+        <is>
+          <t>'16</t>
+        </is>
+      </c>
+      <c r="PC17" t="inlineStr">
+        <is>
+          <t>REGION 16: AMARILLO</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -23854,6 +24024,16 @@
       <c r="PA18" t="n">
         <v>0</v>
       </c>
+      <c r="PB18" t="inlineStr">
+        <is>
+          <t>'17</t>
+        </is>
+      </c>
+      <c r="PC18" t="inlineStr">
+        <is>
+          <t>REGION 17: LUBBOCK</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -25109,6 +25289,16 @@
       <c r="PA19" t="n">
         <v>0</v>
       </c>
+      <c r="PB19" t="inlineStr">
+        <is>
+          <t>'18</t>
+        </is>
+      </c>
+      <c r="PC19" t="inlineStr">
+        <is>
+          <t>REGION 18: MIDLAND</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -26364,6 +26554,16 @@
       <c r="PA20" t="n">
         <v>0</v>
       </c>
+      <c r="PB20" t="inlineStr">
+        <is>
+          <t>'19</t>
+        </is>
+      </c>
+      <c r="PC20" t="inlineStr">
+        <is>
+          <t>REGION 19: EL PASO</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -27618,6 +27818,16 @@
       </c>
       <c r="PA21" t="n">
         <v>0</v>
+      </c>
+      <c r="PB21" t="inlineStr">
+        <is>
+          <t>'20</t>
+        </is>
+      </c>
+      <c r="PC21" t="inlineStr">
+        <is>
+          <t>REGION 20: SAN ANTONIO</t>
+        </is>
       </c>
     </row>
   </sheetData>
